--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3221817.283085527</v>
+        <v>3297346.952750333</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>246.4957587405956</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>128.9001284632685</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.9037140121391</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.762354060213724</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>105.0314420927892</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>125.0824650785141</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>141.3236091729814</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>19.76755821211439</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>40.25883851270446</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03885654827553</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.3517689015299</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,10 +1423,10 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>73.21532344290797</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>3.679536914989178</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.26446238800068</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>58.70811713027407</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.342864261013741</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>144.4797853959765</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>95.21726345495433</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>109.1880071964682</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>26.27694844301186</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>25.82923535834103</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>104.4356141147664</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>49.28308711428274</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>197.0303506760719</v>
       </c>
       <c r="V31" t="n">
-        <v>133.9620172021097</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>24.24103118633065</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>53.98383637884856</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>29.30655540895098</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>25.5162800273053</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>98.14361023919656</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>27.71302859844937</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985772</v>
+        <v>53.76660054227064</v>
       </c>
       <c r="V43" t="n">
-        <v>114.4449296640532</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>212.9745759966893</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>216.4019405540783</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1002.312419342012</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>644.0467207352613</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>644.0467207352613</v>
       </c>
       <c r="F2" t="n">
-        <v>929.3036598490722</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>511.3398517472591</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>184.1451317832619</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,7 +4421,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9927747426011</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9927747426011</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>546.7650488576605</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>546.7650488576605</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>546.7650488576605</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>546.7650488576605</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9927747426011</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9927747426011</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9071733620849</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C5" t="n">
-        <v>584.9446564216732</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337897</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9071733620849</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.566937845283</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>73.91021233765171</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2480.306109885217</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2480.306109885217</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2480.306109885217</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2480.306109885217</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2480.306109885217</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.166777909405</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="T10" t="n">
-        <v>490.2759348564911</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5038,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5075,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.1719636248394</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,10 +5217,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
@@ -5227,22 +5229,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033474</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663868</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X13" t="n">
-        <v>391.9645427683695</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.1719636248394</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="14">
@@ -5255,25 +5257,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5288,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,25 +5302,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>190.6805289025651</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>339.750213104625</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>842.8697743566707</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C16" t="n">
-        <v>673.9335914287639</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>936.0662010112169</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.0662010112169</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="17">
@@ -5495,58 +5497,58 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.29497012173</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>627.7391298106759</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1396.107276203137</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.96990386717</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085867</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
         <v>208.7516828383384</v>
@@ -5668,19 +5670,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488389</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>644.108030042952</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059914</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,31 +5767,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>292.8275092861691</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>539.5926371926332</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>846.912770472595</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3865.493026375032</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>3865.493026375032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3865.493026375032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.149147719352</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4340.970093724449</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4086.285605518562</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>4086.285605518562</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X22" t="n">
-        <v>4086.285605518562</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y22" t="n">
-        <v>3865.493026375032</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028661</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823796</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3079.144181652285</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3883.555759916435</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4553.019521219095</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3869.021087329179</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>3869.021087329179</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>3869.021087329179</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746786</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746786</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746786</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365625</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4499.451682200966</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4499.451682200966</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>4499.451682200966</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>4271.462131302949</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y25" t="n">
-        <v>4050.669552159419</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6214,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3571.106248489713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3922.133756677159</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="C28" t="n">
-        <v>3922.133756677159</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677159</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094765</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596855</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4755.364053706448</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4755.364053706448</v>
+        <v>1449.135374482869</v>
       </c>
       <c r="T28" t="n">
-        <v>4755.364053706448</v>
+        <v>1225.349959272375</v>
       </c>
       <c r="U28" t="n">
-        <v>4466.235414920005</v>
+        <v>1225.349959272375</v>
       </c>
       <c r="V28" t="n">
-        <v>4211.550926714119</v>
+        <v>1225.349959272375</v>
       </c>
       <c r="W28" t="n">
-        <v>3922.133756677159</v>
+        <v>1225.349959272375</v>
       </c>
       <c r="X28" t="n">
-        <v>3922.133756677159</v>
+        <v>1225.349959272375</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.133756677159</v>
+        <v>1004.557380128845</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,37 +6475,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>921.55832560302</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9563154684962</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>1299.895714319446</v>
       </c>
       <c r="V31" t="n">
-        <v>963.3973594422661</v>
+        <v>1045.211226113559</v>
       </c>
       <c r="W31" t="n">
-        <v>963.3973594422661</v>
+        <v>755.7940560765983</v>
       </c>
       <c r="X31" t="n">
-        <v>963.3973594422661</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.6047802987359</v>
+        <v>527.8045051785809</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6700,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6725,19 +6727,19 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.87950510831</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>3177.427413012049</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292011</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556161</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774858</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557068</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.0663679705858</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="C34" t="n">
-        <v>245.1301850426789</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="D34" t="n">
-        <v>245.1301850426789</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>272.1209899995452</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>272.1209899995452</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028583</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>931.4730889055638</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W34" t="n">
-        <v>642.0559188686032</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X34" t="n">
-        <v>414.0663679705858</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y34" t="n">
-        <v>414.0663679705858</v>
+        <v>420.0340835819383</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1925.814757496976</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>565.9270610048577</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C37" t="n">
-        <v>565.9270610048577</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
         <v>415.8104215925219</v>
@@ -7087,10 +7089,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1469.31368933674</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1269.393679252292</v>
+        <v>1362.067146890126</v>
       </c>
       <c r="T37" t="n">
-        <v>1269.393679252292</v>
+        <v>1362.067146890126</v>
       </c>
       <c r="U37" t="n">
-        <v>1269.393679252292</v>
+        <v>1362.067146890126</v>
       </c>
       <c r="V37" t="n">
-        <v>1014.709191046405</v>
+        <v>1362.067146890126</v>
       </c>
       <c r="W37" t="n">
-        <v>1014.709191046405</v>
+        <v>1362.067146890126</v>
       </c>
       <c r="X37" t="n">
-        <v>786.7196401483878</v>
+        <v>1134.077595992109</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.9270610048577</v>
+        <v>913.2850168485789</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1908.095276920732</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.3586382081043</v>
+        <v>441.2984649031102</v>
       </c>
       <c r="C40" t="n">
-        <v>394.223678370532</v>
+        <v>441.2984649031102</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W40" t="n">
-        <v>675.007103038344</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X40" t="n">
-        <v>675.007103038344</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.007103038344</v>
+        <v>622.94692973335</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,10 +7444,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>4270.206469545892</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>4549.746534764589</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.3990000507109</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C43" t="n">
-        <v>562.3990000507109</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383753</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383753</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404651</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035282</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035282</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>898.79251824884</v>
+        <v>1133.611459517835</v>
       </c>
       <c r="V43" t="n">
-        <v>783.1915791942408</v>
+        <v>1133.611459517835</v>
       </c>
       <c r="W43" t="n">
-        <v>783.1915791942408</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="X43" t="n">
-        <v>783.1915791942408</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="Y43" t="n">
-        <v>562.3990000507109</v>
+        <v>844.1942894808744</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,7 +7651,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222747</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M45" t="n">
-        <v>3446.276123502708</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>3776.138751166741</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>4253.421048821322</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>972.79532269519</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>683.6666839087482</v>
+        <v>1169.253348378235</v>
       </c>
       <c r="V46" t="n">
-        <v>428.9821957028613</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="W46" t="n">
-        <v>428.9821957028613</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="X46" t="n">
-        <v>428.9821957028613</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.9821957028613</v>
+        <v>693.7762810288177</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119833</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>52.49733361305211</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>116.9087390531961</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>94.13752431970534</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>171.2966883299262</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>5.100663089359244</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P24" t="n">
-        <v>15.83804904622812</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>392.111362022643</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>104.6241510367952</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>80.50021372615271</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>145.2351313103784</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>199.6230805871095</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10902,25 +10904,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>134.4977453535108</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>297.3877236703349</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.14409596997001</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.7396287231149</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>94.03149765571986</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>222.030118474048</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.56751779393662</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>89.90735588793828</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>163.9039568376141</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>81.22986999306065</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>191.020088943623</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>109.3966461556266</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>259.9604039555655</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>199.8804200306961</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.52873828902645</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>148.6377228693205</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>89.20700172250542</v>
       </c>
       <c r="V31" t="n">
-        <v>118.1756261217183</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>142.2525372770469</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>198.1538069449794</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.65779699484182</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>172.4045299562979</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,7 +25371,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>69.10321085943127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.902444419763</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>232.4707518563067</v>
       </c>
       <c r="V43" t="n">
-        <v>137.6927136597747</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>8.57298506169991</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>69.83541184449902</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.1214241708</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.401554105</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.401554105</v>
       </c>
       <c r="I2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="K2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="J2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="L2" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.401554105</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541048</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.200533006340265e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,10 +26429,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,7 +26441,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26448,13 +26450,13 @@
         <v>22174.60758687077</v>
       </c>
       <c r="M4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="N4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="O4" t="n">
-        <v>22174.60758687086</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26470,37 +26472,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798374</v>
+        <v>-140574.3206798372</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.558534707</v>
+        <v>449393.5585347071</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.5585347071</v>
+        <v>449393.5585347073</v>
       </c>
       <c r="E6" t="n">
-        <v>25427.43154162136</v>
+        <v>25427.4315416215</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185169</v>
+        <v>550587.4680185172</v>
       </c>
       <c r="G6" t="n">
         <v>550587.4680185174</v>
       </c>
       <c r="H6" t="n">
-        <v>550587.4680185172</v>
+        <v>550587.4680185177</v>
       </c>
       <c r="I6" t="n">
-        <v>550587.4680185177</v>
+        <v>550587.4680185175</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259245</v>
+        <v>374164.2488259248</v>
       </c>
       <c r="K6" t="n">
+        <v>550587.4680185176</v>
+      </c>
+      <c r="L6" t="n">
+        <v>550587.4680185176</v>
+      </c>
+      <c r="M6" t="n">
+        <v>415786.4527846802</v>
+      </c>
+      <c r="N6" t="n">
         <v>550587.4680185174</v>
       </c>
-      <c r="L6" t="n">
-        <v>550587.4680185179</v>
-      </c>
-      <c r="M6" t="n">
-        <v>415786.4527846803</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>550587.4680185175</v>
-      </c>
-      <c r="O6" t="n">
-        <v>550587.4680185171</v>
       </c>
       <c r="P6" t="n">
         <v>550587.4680185175</v>
@@ -26695,34 +26697,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,7 +26764,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>160.3802870011158</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>23.03118778159273</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>33.71175900607328</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>208.3831848898052</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>249.6515995278937</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>256.8479049937476</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>56.01837628787163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>110.8140341508466</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>394.0166118086806</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>176.1894818449533</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>124.6263354318823</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>18.68333655655439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,16 +28563,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29797,13 +29799,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29812,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30241,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.40751256795882</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>427.3331161036625</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,13 +35743,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>343.3952292757297</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>378.3901032614508</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>155.6761016772985</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,13 +36448,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P24" t="n">
-        <v>222.9314639777528</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>725.3059354206558</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>311.7175659683198</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>390.9245907766189</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>394.4928362664027</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37318,7 +37320,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>406.7164955186342</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>416.8614475946189</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>504.4811386018595</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>226.2375109014947</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,13 +38110,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3297346.952750333</v>
+        <v>3290329.937858621</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>246.4957587405956</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>61.75656432199281</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.1823972622756</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.762354060213724</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>236.0502377560821</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>125.0824650785141</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>141.3236091729814</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>19.76755821211439</v>
+        <v>317.2509173607196</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295495</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03885654827553</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>3.679536914989178</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4590648403945</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.70811713027407</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>3.342864261013741</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.97444673954864</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>113.2092282972011</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.1880071964682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>25.82923535834103</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.28308711428274</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>197.0303506760719</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.24103118633065</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>24.29718497126802</v>
       </c>
     </row>
     <row r="35">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>25.5162800273053</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>84.65502029802909</v>
       </c>
       <c r="D40" t="n">
-        <v>27.71302859844937</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>53.76660054227064</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>37.43762907261482</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>216.4019405540783</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>143.002866874616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1371.274936282423</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C2" t="n">
-        <v>1002.312419342012</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D2" t="n">
-        <v>644.0467207352613</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="E2" t="n">
-        <v>644.0467207352613</v>
+        <v>945.273062713798</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>534.2871579241905</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>116.3233498223774</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>116.3233498223774</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1371.274936282423</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>546.7650488576605</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>546.7650488576605</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>546.7650488576605</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>546.7650488576605</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.892406545185</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1116.929889604773</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>758.6641909980228</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.892406545185</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1512.612574238669</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1143.650057298257</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>785.384358691507</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685519</v>
+        <v>785.384358691507</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765171</v>
+        <v>374.3984539018995</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2289.351746278603</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2289.351746278603</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1899.212414302791</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>485.0749338020197</v>
+        <v>325.6879402326648</v>
       </c>
       <c r="C10" t="n">
-        <v>485.0749338020197</v>
+        <v>156.7517573047579</v>
       </c>
       <c r="D10" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>705.8675129455498</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>705.8675129455498</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>705.8675129455498</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>705.8675129455498</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>705.8675129455498</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>705.8675129455498</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>705.8675129455498</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>485.0749338020197</v>
+        <v>507.3364050629045</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.5547804049818</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.712528333286</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.995824378752</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.2032452352215</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5269,10 +5269,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1711.385417156675</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2041.248044820708</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>531.3977182706318</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>303.4081673726145</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.1935825831087</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="C19" t="n">
-        <v>523.8169520164281</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="D19" t="n">
-        <v>523.8169520164281</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>755.183133481126</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>527.1935825831087</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.1935825831087</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>827.9306256062542</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>658.9944426783474</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>508.8778032660116</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X22" t="n">
-        <v>558.0926555785013</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>1009.579090436494</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,22 +5974,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6320,10 +6320,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2227.840212610278</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.9089152986054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1449.135374482869</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1225.349959272375</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1225.349959272375</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1225.349959272375</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1225.349959272375</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1225.349959272375</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1004.557380128845</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.8045051785809</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506741</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1299.895714319446</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.211226113559</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W31" t="n">
-        <v>755.7940560765983</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X31" t="n">
-        <v>527.8045051785809</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.8045051785809</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>272.1209899995452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>272.1209899995452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188989</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>420.0340835819383</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X34" t="n">
-        <v>420.0340835819383</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y34" t="n">
-        <v>420.0340835819383</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6916,52 +6916,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,19 +7022,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1362.067146890126</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1362.067146890126</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1362.067146890126</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1362.067146890126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1362.067146890126</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1134.077595992109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>913.2850168485789</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.2984649031102</v>
+        <v>627.6468934660858</v>
       </c>
       <c r="C40" t="n">
-        <v>441.2984649031102</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.156678913841</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W40" t="n">
-        <v>843.7395088768801</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X40" t="n">
-        <v>843.7395088768801</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y40" t="n">
-        <v>622.94692973335</v>
+        <v>809.2953582963255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>844.1942894808744</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C43" t="n">
-        <v>675.2581065529675</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2581065529675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1133.611459517835</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.611459517835</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W43" t="n">
-        <v>844.1942894808744</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X43" t="n">
-        <v>844.1942894808744</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y43" t="n">
-        <v>844.1942894808744</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>693.7762810288177</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C46" t="n">
-        <v>524.8400981009108</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>524.8400981009108</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1169.253348378235</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>914.5688601723479</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="W46" t="n">
-        <v>914.5688601723479</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X46" t="n">
-        <v>914.5688601723479</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y46" t="n">
-        <v>693.7762810288177</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992663</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>116.9087390531961</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>171.2966883299262</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>104.6241510367952</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10670,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>297.3877236703349</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>222.030118474048</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.12558851170024</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>89.90735588793828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>163.9039568376141</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>121.9393816279875</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>33.22473434936808</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.3966461556266</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>199.8804200306961</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>148.6377228693205</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>89.20700172250542</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>142.2525372770469</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>194.2874683808268</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>172.4045299562979</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>82.59180080059875</v>
       </c>
       <c r="D40" t="n">
-        <v>120.902444419763</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25605,10 +25605,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>232.4707518563067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>181.14702427948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>69.83541184449902</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>109.134776449212</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.1214241708</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.1214241708</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="E2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="M2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541048</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541048</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26444,19 +26444,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="L4" t="n">
-        <v>22174.60758687077</v>
-      </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,13 +26499,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798372</v>
+        <v>-140574.3206798377</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347071</v>
+        <v>449393.5585347073</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.5585347073</v>
+        <v>449393.558534707</v>
       </c>
       <c r="E6" t="n">
-        <v>25427.4315416215</v>
+        <v>24452.8402819001</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185172</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="G6" t="n">
-        <v>550587.4680185174</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="H6" t="n">
-        <v>550587.4680185177</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="I6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259248</v>
+        <v>373189.6575662027</v>
       </c>
       <c r="K6" t="n">
-        <v>550587.4680185176</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="L6" t="n">
-        <v>550587.4680185176</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="M6" t="n">
-        <v>415786.4527846802</v>
+        <v>414811.8615249586</v>
       </c>
       <c r="N6" t="n">
-        <v>550587.4680185174</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="O6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="P6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587958</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26773,7 +26773,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>160.3802870011158</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>90.17475192286844</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>130.2386507606556</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>208.3831848898052</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>129.2226540149255</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>256.8479049937476</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>110.8140341508466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>394.0166118086806</v>
+        <v>96.53325266007539</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866289</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>124.6263354318823</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>616.5391140644624</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
         <v>59.8253897034981</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,7 +35734,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>427.3331161036625</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>378.3901032614508</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>462.3874039146955</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>311.7175659683198</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37390,10 +37390,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>504.4811386018595</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38098,10 +38098,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>483.6693559063409</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3290329.937858621</v>
+        <v>3295269.200707654</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>134.8122206876834</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>61.75656432199281</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>15.1823972622756</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.79152971843325</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>236.0502377560821</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>317.2509173607196</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>282.9766153788681</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095445</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>188.4590648403945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498028</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>113.2092282972011</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>186.3246131782421</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847143</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V31" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.29718497126802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.49026575459203</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>84.65502029802909</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.43762907261482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>143.002866874616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.061315312042</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.061315312042</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.061315312042</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>945.273062713798</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>534.2871579241905</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>116.3233498223774</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>116.3233498223774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4372,10 +4372,10 @@
         <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>578.0123447940987</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>666.7233986322594</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238669</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1143.650057298257</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>785.384358691507</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>785.384358691507</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>374.3984539018995</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.84331964269</v>
@@ -4825,31 +4825,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278603</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278603</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.212414302791</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326648</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047579</v>
+        <v>529.7758821321496</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>379.6592427198138</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>231.7461491374207</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629045</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5068,7 +5068,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5463,22 +5463,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5506,19 +5506,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.4640073588198</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>124.4640073588198</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>124.4640073588198</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>124.4640073588198</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>526.9050513325897</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>306.1124721890595</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.9306256062542</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C22" t="n">
-        <v>658.9944426783474</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>508.8778032660116</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
         <v>247.6350999123426</v>
@@ -5904,22 +5904,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,13 +5928,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
@@ -5943,19 +5943,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1110.789580495433</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>856.1050922895458</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.579090436494</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.579090436494</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="Y22" t="n">
-        <v>1009.579090436494</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,31 +6402,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6457,7 +6457,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6469,13 +6469,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>1354.17636097712</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>1064.759190940159</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>836.769640042142</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.9770608986119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1479.229133432052</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1279.309123347605</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1055.52370813711</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,28 +7159,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7219,7 +7219,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>627.6468934660858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963255</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X40" t="n">
-        <v>809.2953582963255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>809.2953582963255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.712528333286</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.712528333286</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1043.47381675789</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>1043.47381675789</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>815.4842658598729</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747118</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.12558851170024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>121.9393816279875</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.22473434936808</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24183,10 +24183,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>99.91273922033528</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,10 +24894,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V31" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.2874683808268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>90.47408664920074</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>82.59180080059875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.14702427948</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>109.134776449212</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
@@ -26325,37 +26325,37 @@
         <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="H2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541046</v>
-      </c>
       <c r="K2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.401554105</v>
       </c>
       <c r="L2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="O2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541048</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26435,28 +26435,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687063</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="K4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="L4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798377</v>
+        <v>-140574.3206798375</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347073</v>
+        <v>449393.5585347071</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.558534707</v>
+        <v>449393.5585347072</v>
       </c>
       <c r="E6" t="n">
-        <v>24452.8402819001</v>
+        <v>25329.97241564933</v>
       </c>
       <c r="F6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925452</v>
       </c>
       <c r="G6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925454</v>
       </c>
       <c r="H6" t="n">
-        <v>549612.8767587959</v>
+        <v>550490.008892545</v>
       </c>
       <c r="I6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925452</v>
       </c>
       <c r="J6" t="n">
-        <v>373189.6575662027</v>
+        <v>374066.7896999525</v>
       </c>
       <c r="K6" t="n">
-        <v>549612.8767587959</v>
+        <v>550490.0088925456</v>
       </c>
       <c r="L6" t="n">
-        <v>549612.8767587959</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="M6" t="n">
-        <v>414811.8615249586</v>
+        <v>415688.9936587084</v>
       </c>
       <c r="N6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925454</v>
       </c>
       <c r="O6" t="n">
-        <v>549612.8767587959</v>
+        <v>550490.0088925455</v>
       </c>
       <c r="P6" t="n">
-        <v>549612.8767587958</v>
+        <v>550490.0088925455</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26807,10 +26807,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>247.9216209757972</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90.17475192286844</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>130.2386507606556</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>157.7931236336615</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>129.2226540149255</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>14.59587156758264</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>96.53325266007539</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>66.26435333854488</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866289</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>14.59587156758254</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.790567694115452e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,31 +31530,31 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478008</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31624,19 +31624,19 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35190,7 +35190,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
